--- a/xls/JČU-Zdravotně sociální fakulta_Local.xlsx
+++ b/xls/JČU-Zdravotně sociální fakulta_Local.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="363">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,12 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
     <t>Jimp</t>
   </si>
   <si>
@@ -1010,6 +1016,93 @@
   </si>
   <si>
     <t>JČU-Jihočeská univerzita v Českých Budějovicích</t>
+  </si>
+  <si>
+    <t>FQ</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Medical and Health Sciences</t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
+  </si>
+  <si>
+    <t>Natural Sciences</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering and Technology </t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1391,7 +1484,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1449,13 +1542,19 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0.84210527</v>
@@ -1464,54 +1563,60 @@
         <v>7.0723152</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P2">
         <v>60076658</v>
       </c>
       <c r="Q2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T2" t="s">
+        <v>334</v>
+      </c>
+      <c r="U2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1520,54 +1625,60 @@
         <v>10.144301</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P3">
         <v>60076658</v>
       </c>
       <c r="Q3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T3" t="s">
+        <v>335</v>
+      </c>
+      <c r="U3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>2014</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1576,54 +1687,60 @@
         <v>7.0264354</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P4">
         <v>60076658</v>
       </c>
       <c r="Q4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T4" t="s">
+        <v>335</v>
+      </c>
+      <c r="U4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>0.40000001</v>
@@ -1632,57 +1749,63 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P5">
         <v>60076658</v>
       </c>
       <c r="Q5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T5" t="s">
+        <v>336</v>
+      </c>
+      <c r="U5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>2012</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>0.66666669</v>
@@ -1691,57 +1814,63 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P6">
         <v>60076658</v>
       </c>
       <c r="Q6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T6" t="s">
+        <v>336</v>
+      </c>
+      <c r="U6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>2014</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1750,57 +1879,63 @@
         <v>9.3221922</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P7">
         <v>60076658</v>
       </c>
       <c r="Q7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T7" t="s">
+        <v>337</v>
+      </c>
+      <c r="U7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0.85714287</v>
@@ -1809,54 +1944,60 @@
         <v>9.6498566</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P8">
         <v>60076658</v>
       </c>
       <c r="Q8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T8" t="s">
+        <v>338</v>
+      </c>
+      <c r="U8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1865,54 +2006,60 @@
         <v>15.165072</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P9">
         <v>60076658</v>
       </c>
       <c r="Q9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T9" t="s">
+        <v>338</v>
+      </c>
+      <c r="U9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1921,54 +2068,60 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P10">
         <v>60076658</v>
       </c>
       <c r="Q10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T10" t="s">
+        <v>339</v>
+      </c>
+      <c r="U10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>2012</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1977,54 +2130,60 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P11">
         <v>60076658</v>
       </c>
       <c r="Q11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T11" t="s">
+        <v>340</v>
+      </c>
+      <c r="U11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2033,57 +2192,63 @@
         <v>7.0264354</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P12">
         <v>60076658</v>
       </c>
       <c r="Q12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T12" t="s">
+        <v>335</v>
+      </c>
+      <c r="U12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>2015</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>0.83333331</v>
@@ -2092,54 +2257,60 @@
         <v>5.0028629</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M13" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O13" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P13">
         <v>60076658</v>
       </c>
       <c r="Q13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R13" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T13" t="s">
+        <v>335</v>
+      </c>
+      <c r="U13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>2015</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2148,54 +2319,60 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K14" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L14" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M14" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P14">
         <v>60076658</v>
       </c>
       <c r="Q14" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R14" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T14" t="s">
+        <v>339</v>
+      </c>
+      <c r="U14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>2014</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2204,54 +2381,60 @@
         <v>6.4016294</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L15" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O15" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P15">
         <v>60076658</v>
       </c>
       <c r="Q15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T15" t="s">
+        <v>341</v>
+      </c>
+      <c r="U15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2260,57 +2443,63 @@
         <v>9.689477</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K16" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N16" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P16">
         <v>60076658</v>
       </c>
       <c r="Q16" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T16" t="s">
+        <v>342</v>
+      </c>
+      <c r="U16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>2015</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>0.80000001</v>
@@ -2319,54 +2508,60 @@
         <v>8.115441300000001</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P17">
         <v>60076658</v>
       </c>
       <c r="Q17" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T17" t="s">
+        <v>335</v>
+      </c>
+      <c r="U17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>2014</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2375,54 +2570,60 @@
         <v>7.0264354</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L18" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N18" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P18">
         <v>60076658</v>
       </c>
       <c r="Q18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R18" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T18" t="s">
+        <v>343</v>
+      </c>
+      <c r="U18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>2015</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2431,54 +2632,60 @@
         <v>8.974746699999999</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N19" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O19" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P19">
         <v>60076658</v>
       </c>
       <c r="Q19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S19" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T19" t="s">
+        <v>342</v>
+      </c>
+      <c r="U19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>2014</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>0.66666669</v>
@@ -2487,54 +2694,60 @@
         <v>5.394674299999999</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N20" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P20">
         <v>60076658</v>
       </c>
       <c r="Q20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R20" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T20" t="s">
+        <v>344</v>
+      </c>
+      <c r="U20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>2012</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2543,54 +2756,60 @@
         <v>14.255</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P21">
         <v>60076658</v>
       </c>
       <c r="Q21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R21" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S21" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T21" t="s">
+        <v>345</v>
+      </c>
+      <c r="U21" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>2014</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2599,54 +2818,60 @@
         <v>10.597285</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O22" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P22">
         <v>60076658</v>
       </c>
       <c r="Q22" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R22" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T22" t="s">
+        <v>346</v>
+      </c>
+      <c r="U22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>2011</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2655,54 +2880,60 @@
         <v>19.305</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P23">
         <v>60076658</v>
       </c>
       <c r="Q23" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R23" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T23" t="s">
+        <v>347</v>
+      </c>
+      <c r="U23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>2014</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2711,54 +2942,60 @@
         <v>10.63518</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M24" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N24" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P24">
         <v>60076658</v>
       </c>
       <c r="Q24" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R24" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T24" t="s">
+        <v>338</v>
+      </c>
+      <c r="U24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>2015</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2767,54 +3004,60 @@
         <v>8.974746699999999</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M25" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N25" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P25">
         <v>60076658</v>
       </c>
       <c r="Q25" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R25" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S25" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T25" t="s">
+        <v>338</v>
+      </c>
+      <c r="U25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>2013</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>0.66666669</v>
@@ -2823,54 +3066,60 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M26" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O26" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P26">
         <v>60076658</v>
       </c>
       <c r="Q26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S26" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T26" t="s">
+        <v>337</v>
+      </c>
+      <c r="U26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>2014</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2879,54 +3128,60 @@
         <v>9.689477</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M27" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N27" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O27" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P27">
         <v>60076658</v>
       </c>
       <c r="Q27" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T27" t="s">
+        <v>342</v>
+      </c>
+      <c r="U27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>2014</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2935,54 +3190,60 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O28" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P28">
         <v>60076658</v>
       </c>
       <c r="Q28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R28" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T28" t="s">
+        <v>337</v>
+      </c>
+      <c r="U28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>2014</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2991,54 +3252,60 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M29" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N29" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O29" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P29">
         <v>60076658</v>
       </c>
       <c r="Q29" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T29" t="s">
+        <v>339</v>
+      </c>
+      <c r="U29" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30">
         <v>2015</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3047,54 +3314,60 @@
         <v>17.121805</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N30" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O30" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P30">
         <v>60076658</v>
       </c>
       <c r="Q30" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R30" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S30" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T30" t="s">
+        <v>348</v>
+      </c>
+      <c r="U30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>2012</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>0.66666669</v>
@@ -3103,54 +3376,60 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N31" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P31">
         <v>60076658</v>
       </c>
       <c r="Q31" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R31" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S31" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T31" t="s">
+        <v>337</v>
+      </c>
+      <c r="U31" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>2011</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>0.80000001</v>
@@ -3159,54 +3438,60 @@
         <v>8.9820004</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K32" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O32" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P32">
         <v>60076658</v>
       </c>
       <c r="Q32" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R32" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S32" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T32" t="s">
+        <v>349</v>
+      </c>
+      <c r="U32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33">
         <v>2015</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>0.66666669</v>
@@ -3215,57 +3500,63 @@
         <v>6.7628675</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M33" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P33">
         <v>60076658</v>
       </c>
       <c r="Q33" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R33" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S33" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T33" t="s">
+        <v>335</v>
+      </c>
+      <c r="U33" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34">
         <v>2015</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3274,54 +3565,60 @@
         <v>15.165072</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K34" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O34" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P34">
         <v>60076658</v>
       </c>
       <c r="Q34" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R34" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S34" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T34" t="s">
+        <v>350</v>
+      </c>
+      <c r="U34" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35">
         <v>2012</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3330,54 +3627,60 @@
         <v>12.187</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P35">
         <v>60076658</v>
       </c>
       <c r="Q35" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R35" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S35" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T35" t="s">
+        <v>349</v>
+      </c>
+      <c r="U35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36">
         <v>2014</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3386,54 +3689,60 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H36" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N36" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O36" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P36">
         <v>60076658</v>
       </c>
       <c r="Q36" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R36" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S36" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T36" t="s">
+        <v>339</v>
+      </c>
+      <c r="U36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37">
         <v>2014</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3442,54 +3751,60 @@
         <v>10.63518</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K37" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O37" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P37">
         <v>60076658</v>
       </c>
       <c r="Q37" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R37" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S37" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T37" t="s">
+        <v>338</v>
+      </c>
+      <c r="U37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38">
         <v>2014</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>0.66666669</v>
@@ -3498,54 +3813,60 @@
         <v>6.214794599999999</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G38" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K38" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N38" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O38" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P38">
         <v>60076658</v>
       </c>
       <c r="Q38" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R38" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S38" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T38" t="s">
+        <v>349</v>
+      </c>
+      <c r="U38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>2014</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3554,54 +3875,60 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K39" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L39" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M39" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N39" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O39" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P39">
         <v>60076658</v>
       </c>
       <c r="Q39" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R39" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S39" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T39" t="s">
+        <v>339</v>
+      </c>
+      <c r="U39" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40">
         <v>2015</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3610,54 +3937,60 @@
         <v>15.165072</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K40" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N40" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P40">
         <v>60076658</v>
       </c>
       <c r="Q40" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R40" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S40" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T40" t="s">
+        <v>350</v>
+      </c>
+      <c r="U40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41">
         <v>2014</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3666,54 +3999,60 @@
         <v>14.095276</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K41" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L41" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M41" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N41" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O41" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P41">
         <v>60076658</v>
       </c>
       <c r="Q41" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R41" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S41" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T41" t="s">
+        <v>342</v>
+      </c>
+      <c r="U41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42">
         <v>2014</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C42">
         <v>0.66666669</v>
@@ -3722,54 +4061,60 @@
         <v>7.4353619</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K42" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M42" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N42" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O42" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P42">
         <v>60076658</v>
       </c>
       <c r="Q42" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R42" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S42" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T42" t="s">
+        <v>350</v>
+      </c>
+      <c r="U42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43">
         <v>2014</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>0.66666669</v>
@@ -3778,54 +4123,60 @@
         <v>6.214794599999999</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K43" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O43" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P43">
         <v>60076658</v>
       </c>
       <c r="Q43" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R43" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S43" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T43" t="s">
+        <v>337</v>
+      </c>
+      <c r="U43" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44">
         <v>2014</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3834,54 +4185,60 @@
         <v>9.689477</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H44" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K44" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L44" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O44" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P44">
         <v>60076658</v>
       </c>
       <c r="Q44" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R44" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S44" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T44" t="s">
+        <v>338</v>
+      </c>
+      <c r="U44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45">
         <v>2015</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3890,57 +4247,63 @@
         <v>15.165072</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H45" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I45" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K45" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L45" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N45" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P45">
         <v>60076658</v>
       </c>
       <c r="Q45" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R45" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S45" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T45" t="s">
+        <v>350</v>
+      </c>
+      <c r="U45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46">
         <v>2015</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>0.66666669</v>
@@ -3949,54 +4312,60 @@
         <v>4.9000301</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K46" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L46" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M46" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N46" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O46" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P46">
         <v>60076658</v>
       </c>
       <c r="Q46" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R46" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S46" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T46" t="s">
+        <v>335</v>
+      </c>
+      <c r="U46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47">
         <v>2014</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4005,57 +4374,63 @@
         <v>9.689477</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H47" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K47" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M47" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N47" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O47" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P47">
         <v>60076658</v>
       </c>
       <c r="Q47" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R47" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S47" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T47" t="s">
+        <v>351</v>
+      </c>
+      <c r="U47" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48">
         <v>2014</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>0.5</v>
@@ -4064,54 +4439,60 @@
         <v>6.918551</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H48" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I48" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K48" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L48" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M48" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N48" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O48" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P48">
         <v>60076658</v>
       </c>
       <c r="Q48" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R48" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S48" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T48" t="s">
+        <v>338</v>
+      </c>
+      <c r="U48" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49">
         <v>2014</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4120,54 +4501,60 @@
         <v>11.17574</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K49" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L49" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M49" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N49" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O49" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P49">
         <v>60076658</v>
       </c>
       <c r="Q49" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R49" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S49" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T49" t="s">
+        <v>343</v>
+      </c>
+      <c r="U49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50">
         <v>2015</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>0.66666669</v>
@@ -4176,54 +4563,60 @@
         <v>11.414536</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G50" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I50" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K50" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M50" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N50" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O50" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P50">
         <v>60076658</v>
       </c>
       <c r="Q50" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R50" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S50" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T50" t="s">
+        <v>348</v>
+      </c>
+      <c r="U50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51">
         <v>2012</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4232,54 +4625,60 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K51" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L51" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M51" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N51" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O51" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P51">
         <v>60076658</v>
       </c>
       <c r="Q51" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R51" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S51" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T51" t="s">
+        <v>334</v>
+      </c>
+      <c r="U51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52">
         <v>2014</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -4288,54 +4687,60 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G52" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K52" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L52" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M52" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N52" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O52" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P52">
         <v>60076658</v>
       </c>
       <c r="Q52" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R52" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S52" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T52" t="s">
+        <v>337</v>
+      </c>
+      <c r="U52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53">
         <v>2015</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4344,54 +4749,60 @@
         <v>15.165072</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F53" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H53" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I53" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K53" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L53" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M53" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N53" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O53" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P53">
         <v>60076658</v>
       </c>
       <c r="Q53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R53" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S53" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T53" t="s">
+        <v>342</v>
+      </c>
+      <c r="U53" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54">
         <v>2015</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -4400,57 +4811,63 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K54" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L54" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M54" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N54" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O54" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P54">
         <v>60076658</v>
       </c>
       <c r="Q54" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R54" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S54" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T54" t="s">
+        <v>334</v>
+      </c>
+      <c r="U54" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55">
         <v>2012</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C55">
         <v>0.66666669</v>
@@ -4459,54 +4876,60 @@
         <v>10.873</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I55" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K55" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L55" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M55" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N55" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O55" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P55">
         <v>60076658</v>
       </c>
       <c r="Q55" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R55" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S55" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T55" t="s">
+        <v>343</v>
+      </c>
+      <c r="U55" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56">
         <v>2015</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>0.66666669</v>
@@ -4515,54 +4938,60 @@
         <v>5.983164299999999</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K56" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L56" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M56" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N56" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O56" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P56">
         <v>60076658</v>
       </c>
       <c r="Q56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R56" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S56" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T56" t="s">
+        <v>342</v>
+      </c>
+      <c r="U56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57">
         <v>2014</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>0.83333331</v>
@@ -4571,54 +5000,60 @@
         <v>7.7684932</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G57" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H57" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I57" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K57" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L57" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M57" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N57" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O57" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P57">
         <v>60076658</v>
       </c>
       <c r="Q57" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R57" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S57" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T57" t="s">
+        <v>334</v>
+      </c>
+      <c r="U57" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58">
         <v>2014</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C58">
         <v>0.66666669</v>
@@ -4627,57 +5062,63 @@
         <v>7.481277</v>
       </c>
       <c r="E58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H58" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I58" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K58" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L58" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M58" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N58" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O58" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P58">
         <v>60076658</v>
       </c>
       <c r="Q58" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R58" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S58" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T58" t="s">
+        <v>352</v>
+      </c>
+      <c r="U58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59">
         <v>2015</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4686,54 +5127,60 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K59" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L59" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M59" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N59" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O59" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P59">
         <v>60076658</v>
       </c>
       <c r="Q59" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R59" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S59" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T59" t="s">
+        <v>339</v>
+      </c>
+      <c r="U59" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60">
         <v>2014</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4742,54 +5189,60 @@
         <v>11.153043</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G60" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H60" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I60" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K60" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L60" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M60" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N60" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O60" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P60">
         <v>60076658</v>
       </c>
       <c r="Q60" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R60" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S60" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T60" t="s">
+        <v>350</v>
+      </c>
+      <c r="U60" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61">
         <v>2014</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4798,54 +5251,60 @@
         <v>6.4016294</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F61" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I61" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K61" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L61" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M61" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N61" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O61" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P61">
         <v>60076658</v>
       </c>
       <c r="Q61" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R61" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S61" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T61" t="s">
+        <v>335</v>
+      </c>
+      <c r="U61" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62">
         <v>2015</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -4854,54 +5313,60 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G62" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H62" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K62" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L62" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M62" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N62" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O62" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P62">
         <v>60076658</v>
       </c>
       <c r="Q62" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R62" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S62" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T62" t="s">
+        <v>339</v>
+      </c>
+      <c r="U62" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63">
         <v>2011</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4910,54 +5375,60 @@
         <v>10.569</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K63" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L63" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M63" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N63" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P63">
         <v>60076658</v>
       </c>
       <c r="Q63" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R63" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S63" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T63" t="s">
+        <v>337</v>
+      </c>
+      <c r="U63" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64">
         <v>2011</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>0.5</v>
@@ -4966,54 +5437,60 @@
         <v>5.6139998</v>
       </c>
       <c r="E64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K64" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L64" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M64" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N64" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O64" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P64">
         <v>60076658</v>
       </c>
       <c r="Q64" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R64" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S64" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T64" t="s">
+        <v>353</v>
+      </c>
+      <c r="U64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65">
         <v>2015</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5022,54 +5499,60 @@
         <v>8.974746699999999</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F65" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G65" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I65" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K65" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L65" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M65" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N65" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O65" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P65">
         <v>60076658</v>
       </c>
       <c r="Q65" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R65" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S65" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T65" t="s">
+        <v>342</v>
+      </c>
+      <c r="U65" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>2014</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C66">
         <v>0.22222222</v>
@@ -5078,57 +5561,63 @@
         <v>2.4834979</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F66" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G66" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K66" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L66" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M66" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N66" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O66" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P66">
         <v>60076658</v>
       </c>
       <c r="Q66" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R66" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S66" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T66" t="s">
+        <v>343</v>
+      </c>
+      <c r="U66" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67">
         <v>2014</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>0.85714287</v>
@@ -5137,54 +5626,60 @@
         <v>9.115868600000001</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G67" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H67" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I67" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K67" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L67" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M67" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N67" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O67" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P67">
         <v>60076658</v>
       </c>
       <c r="Q67" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R67" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S67" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T67" t="s">
+        <v>342</v>
+      </c>
+      <c r="U67" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68">
         <v>2014</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C68">
         <v>0.80000001</v>
@@ -5193,57 +5688,63 @@
         <v>7.751581699999999</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G68" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H68" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K68" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L68" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M68" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N68" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O68" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P68">
         <v>60076658</v>
       </c>
       <c r="Q68" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R68" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S68" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T68" t="s">
+        <v>342</v>
+      </c>
+      <c r="U68" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>2015</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <v>0.61538464</v>
@@ -5252,54 +5753,60 @@
         <v>5.4209323</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G69" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H69" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K69" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L69" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M69" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N69" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O69" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P69">
         <v>60076658</v>
       </c>
       <c r="Q69" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R69" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S69" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T69" t="s">
+        <v>354</v>
+      </c>
+      <c r="U69" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>2014</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5308,54 +5815,60 @@
         <v>9.689477</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H70" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K70" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L70" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M70" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N70" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O70" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P70">
         <v>60076658</v>
       </c>
       <c r="Q70" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R70" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S70" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T70" t="s">
+        <v>338</v>
+      </c>
+      <c r="U70" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>2015</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -5364,54 +5877,60 @@
         <v>8.3983746</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F71" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G71" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K71" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L71" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M71" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N71" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O71" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P71">
         <v>60076658</v>
       </c>
       <c r="Q71" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R71" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S71" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T71" t="s">
+        <v>349</v>
+      </c>
+      <c r="U71" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>2015</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -5420,54 +5939,60 @@
         <v>6.0034351</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G72" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H72" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I72" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K72" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L72" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M72" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N72" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O72" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P72">
         <v>60076658</v>
       </c>
       <c r="Q72" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R72" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S72" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T72" t="s">
+        <v>335</v>
+      </c>
+      <c r="U72" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73">
         <v>2011</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C73">
         <v>0.5</v>
@@ -5476,54 +6001,60 @@
         <v>5.2839999</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G73" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H73" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I73" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K73" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L73" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M73" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N73" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O73" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P73">
         <v>60076658</v>
       </c>
       <c r="Q73" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R73" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S73" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T73" t="s">
+        <v>336</v>
+      </c>
+      <c r="U73" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74">
         <v>2015</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -5532,54 +6063,60 @@
         <v>8.974746699999999</v>
       </c>
       <c r="E74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G74" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H74" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I74" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K74" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L74" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M74" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N74" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O74" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P74">
         <v>60076658</v>
       </c>
       <c r="Q74" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R74" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S74" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T74" t="s">
+        <v>338</v>
+      </c>
+      <c r="U74" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75">
         <v>2015</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -5588,54 +6125,60 @@
         <v>15.165072</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F75" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G75" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H75" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K75" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L75" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M75" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N75" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O75" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P75">
         <v>60076658</v>
       </c>
       <c r="Q75" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R75" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S75" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T75" t="s">
+        <v>342</v>
+      </c>
+      <c r="U75" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>2015</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5644,54 +6187,60 @@
         <v>15.165072</v>
       </c>
       <c r="E76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F76" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G76" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H76" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I76" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K76" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L76" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M76" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N76" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O76" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P76">
         <v>60076658</v>
       </c>
       <c r="Q76" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R76" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S76" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T76" t="s">
+        <v>342</v>
+      </c>
+      <c r="U76" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77">
         <v>2015</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -5700,54 +6249,60 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F77" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G77" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H77" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K77" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L77" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M77" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N77" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O77" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P77">
         <v>60076658</v>
       </c>
       <c r="Q77" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R77" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S77" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T77" t="s">
+        <v>337</v>
+      </c>
+      <c r="U77" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78">
         <v>2014</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -5756,54 +6311,60 @@
         <v>9.689477</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F78" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G78" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H78" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K78" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L78" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N78" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O78" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P78">
         <v>60076658</v>
       </c>
       <c r="Q78" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R78" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T78" t="s">
+        <v>342</v>
+      </c>
+      <c r="U78" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79">
         <v>2012</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C79">
         <v>0.40000001</v>
@@ -5812,54 +6373,60 @@
         <v>2.8570001</v>
       </c>
       <c r="E79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F79" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G79" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K79" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L79" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M79" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N79" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O79" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P79">
         <v>60076658</v>
       </c>
       <c r="Q79" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R79" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S79" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T79" t="s">
+        <v>343</v>
+      </c>
+      <c r="U79" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80">
         <v>2015</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5868,54 +6435,60 @@
         <v>6.0034351</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G80" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H80" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I80" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K80" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L80" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M80" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N80" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O80" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P80">
         <v>60076658</v>
       </c>
       <c r="Q80" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R80" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S80" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T80" t="s">
+        <v>355</v>
+      </c>
+      <c r="U80" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>2014</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>0.40000001</v>
@@ -5924,54 +6497,60 @@
         <v>3.7288766</v>
       </c>
       <c r="E81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G81" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H81" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I81" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K81" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L81" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M81" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N81" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O81" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P81">
         <v>60076658</v>
       </c>
       <c r="Q81" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R81" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S81" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T81" t="s">
+        <v>337</v>
+      </c>
+      <c r="U81" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>2015</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5980,54 +6559,60 @@
         <v>8.974746699999999</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G82" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H82" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I82" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K82" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L82" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M82" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N82" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O82" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P82">
         <v>60076658</v>
       </c>
       <c r="Q82" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R82" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S82" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T82" t="s">
+        <v>342</v>
+      </c>
+      <c r="U82" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>2014</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C83">
         <v>0.82352942</v>
@@ -6036,54 +6621,60 @@
         <v>7.6770992</v>
       </c>
       <c r="E83" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F83" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G83" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H83" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I83" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K83" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L83" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M83" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N83" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O83" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P83">
         <v>60076658</v>
       </c>
       <c r="Q83" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R83" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S83" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T83" t="s">
+        <v>349</v>
+      </c>
+      <c r="U83" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>2011</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C84">
         <v>0.85699999</v>
@@ -6092,54 +6683,60 @@
         <v>16.547001</v>
       </c>
       <c r="E84" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G84" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H84" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K84" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L84" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M84" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N84" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O84" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P84">
         <v>60076658</v>
       </c>
       <c r="Q84" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R84" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S84" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T84" t="s">
+        <v>356</v>
+      </c>
+      <c r="U84" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>2014</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -6148,54 +6745,60 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G85" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H85" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K85" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L85" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M85" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N85" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O85" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P85">
         <v>60076658</v>
       </c>
       <c r="Q85" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R85" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S85" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T85" t="s">
+        <v>339</v>
+      </c>
+      <c r="U85" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>2013</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -6204,49 +6807,55 @@
         <v>17.768999</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G86" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H86" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I86" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K86" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L86" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M86" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N86" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O86" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P86">
         <v>60076658</v>
       </c>
       <c r="Q86" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R86" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S86" t="s">
-        <v>331</v>
+        <v>333</v>
+      </c>
+      <c r="T86" t="s">
+        <v>357</v>
+      </c>
+      <c r="U86" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
